--- a/biology/Biochimie/Trèfle_bêta/Trèfle_bêta.xlsx
+++ b/biology/Biochimie/Trèfle_bêta/Trèfle_bêta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_b%C3%AAta</t>
+          <t>Trèfle_bêta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un trèfle β est une structure protéique comprenant trois séquences β–β–β–boucle–β repliées de telle sorte que deux épingles à cheveux β à deux brins se forment avec le premier et le dernier brin β pour la première, et avec les deuxième et troisième brins β pour la seconde épingle à cheveux β. L'ensemble forme un tonneau β de 1,6 nm de diamètre avec une coiffe triangulaire et une symétrie approximativement d'ordre 3[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un trèfle β est une structure protéique comprenant trois séquences β–β–β–boucle–β repliées de telle sorte que deux épingles à cheveux β à deux brins se forment avec le premier et le dernier brin β pour la première, et avec les deuxième et troisième brins β pour la seconde épingle à cheveux β. L'ensemble forme un tonneau β de 1,6 nm de diamètre avec une coiffe triangulaire et une symétrie approximativement d'ordre 3,.
 Parmi les protéines qui présentent un domaine en trèfle β, on peut noter les inhibiteurs à domaine de Kunitz (en) de plantes telles que le soja, l'arbre corail africain (en) et le blé ; les cytokines de la famille des interleukines 1 (interleukine 1α (en), interleukine 1β, antagoniste du récepteur des interleukines 1 (en)) ainsi que des facteurs de croissance des fibroblastes 1 (en) et 2 (en).
 </t>
         </is>
